--- a/Excel/HybridFrameworkExcel.xlsx
+++ b/Excel/HybridFrameworkExcel.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="7">
   <si>
     <t>selenium write</t>
   </si>
@@ -394,7 +394,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
